--- a/Research-Replay Data.xlsx
+++ b/Research-Replay Data.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="1220" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Replay Application Observations</t>
   </si>
@@ -56,26 +64,55 @@
   </si>
   <si>
     <t>During tutorial mode, the game can be successfully replayed for up to 60 seconds because beginning turns/jumps are identical for each tutorial game</t>
+  </si>
+  <si>
+    <t>New York Times</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Ran well with replay</t>
+  </si>
+  <si>
+    <t>Brightness settings are saved in app and adjusting them is not replayed well</t>
+  </si>
+  <si>
+    <t>Not easily replayed for pinning posts (replay cause a 're-pin')</t>
+  </si>
+  <si>
+    <t>Replay runs well if just scrolling through board</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Netflix saves where you last left off in an episode, so difficult to replay if starting from the beginning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,15 +120,16 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -104,6 +142,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -114,6 +153,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -126,6 +166,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -140,140 +181,542 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
-    <col customWidth="1" min="3" max="3" width="27.0"/>
+    <col min="1" max="1" width="14.5" style="6"/>
+    <col min="2" max="2" width="39.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="14.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="13">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3" ht="12">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="12">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="36">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="12">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="24">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="60">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="10" spans="1:3" ht="24">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Research-Replay Data.xlsx
+++ b/Research-Replay Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Replay Application Observations</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Netflix saves where you last left off in an episode, so difficult to replay if starting from the beginning</t>
+  </si>
+  <si>
+    <t>BBC News</t>
+  </si>
+  <si>
+    <t>Bubble Shoot</t>
+  </si>
+  <si>
+    <t>Color Note</t>
+  </si>
+  <si>
+    <t>Evernote</t>
   </si>
 </sst>
 </file>
@@ -225,6 +237,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -232,24 +262,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,35 +595,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="6"/>
-    <col min="2" max="2" width="39.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="14.5" style="6"/>
+    <col min="1" max="1" width="14.5" style="3"/>
+    <col min="2" max="2" width="39.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="14.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="13">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -673,40 +685,93 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="24">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
